--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Intro Fraction Comparison 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Intro Fraction Comparison 4.xlsx_with_dialog_acts.xlsx
@@ -1413,12 +1413,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1717,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1793,12 +1793,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2097,12 +2097,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2135,12 +2135,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2819,12 +2819,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3441,12 +3441,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3479,12 +3479,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3981,12 +3981,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4437,12 +4437,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4935,12 +4935,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5281,12 +5281,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5357,12 +5357,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5471,12 +5471,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5889,12 +5889,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6421,12 +6421,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6611,12 +6611,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6953,12 +6953,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6991,12 +6991,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7789,12 +7789,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8021,12 +8021,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8713,12 +8713,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8865,12 +8865,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9435,12 +9435,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
